--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136134.0939908375</v>
+        <v>149860.4521282557</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69879.81359544015</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="C2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="D2" t="n">
         <v>69879.81359544017</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="C4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="D4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="E4" t="n">
         <v>25483.7760014399</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138415</v>
+        <v>-6750.748617138393</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.74861713843</v>
+        <v>-6750.748617138393</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138401</v>
+        <v>-6750.748617138393</v>
       </c>
       <c r="E6" t="n">
-        <v>-87887.03180903691</v>
+        <v>-87887.03180903697</v>
       </c>
       <c r="F6" t="n">
         <v>45212.96819096308</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149860.4521282557</v>
+        <v>24750.55333077913</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="C2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="D2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="E2" t="n">
-        <v>74308.3562974113</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="F2" t="n">
-        <v>74308.3562974113</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="G2" t="n">
-        <v>74308.3562974113</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="H2" t="n">
-        <v>74308.3562974113</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="I2" t="n">
-        <v>74308.3562974113</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="J2" t="n">
-        <v>74308.3562974113</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="K2" t="n">
-        <v>74308.3562974113</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="L2" t="n">
-        <v>74308.3562974113</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="M2" t="n">
-        <v>74308.3562974113</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="N2" t="n">
-        <v>74308.3562974113</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="O2" t="n">
-        <v>74308.3562974113</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="P2" t="n">
-        <v>74308.3562974113</v>
+        <v>74308.35629741133</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138393</v>
+        <v>-21901.42258717317</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138393</v>
+        <v>-21901.42258717317</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138393</v>
+        <v>-21901.42258717317</v>
       </c>
       <c r="E6" t="n">
-        <v>-87887.03180903697</v>
+        <v>-102697.0486481508</v>
       </c>
       <c r="F6" t="n">
-        <v>45212.96819096308</v>
+        <v>30402.95135184921</v>
       </c>
       <c r="G6" t="n">
-        <v>45212.96819096308</v>
+        <v>30402.95135184921</v>
       </c>
       <c r="H6" t="n">
-        <v>45212.96819096308</v>
+        <v>30402.95135184921</v>
       </c>
       <c r="I6" t="n">
-        <v>45212.96819096308</v>
+        <v>30402.95135184921</v>
       </c>
       <c r="J6" t="n">
-        <v>45212.96819096308</v>
+        <v>30402.95135184921</v>
       </c>
       <c r="K6" t="n">
-        <v>45212.96819096308</v>
+        <v>30402.95135184921</v>
       </c>
       <c r="L6" t="n">
-        <v>45212.96819096308</v>
+        <v>30402.95135184921</v>
       </c>
       <c r="M6" t="n">
-        <v>45212.96819096308</v>
+        <v>30402.95135184921</v>
       </c>
       <c r="N6" t="n">
-        <v>45212.96819096308</v>
+        <v>30402.95135184921</v>
       </c>
       <c r="O6" t="n">
-        <v>45212.96819096308</v>
+        <v>30402.95135184921</v>
       </c>
       <c r="P6" t="n">
-        <v>45212.96819096308</v>
+        <v>30402.95135184921</v>
       </c>
     </row>
   </sheetData>
